--- a/Banco Central/Estadísticas Monetarias y Financieras/Medidas excepcionales de liquidez/Intervención cambiaria 2019 - Diaria.xlsx
+++ b/Banco Central/Estadísticas Monetarias y Financieras/Medidas excepcionales de liquidez/Intervención cambiaria 2019 - Diaria.xlsx
@@ -19,76 +19,76 @@
     <t>Serie</t>
   </si>
   <si>
-    <t>02.Dic.2019</t>
-  </si>
-  <si>
-    <t>03.Dic.2019</t>
-  </si>
-  <si>
-    <t>04.Dic.2019</t>
-  </si>
-  <si>
-    <t>05.Dic.2019</t>
-  </si>
-  <si>
-    <t>06.Dic.2019</t>
-  </si>
-  <si>
-    <t>09.Dic.2019</t>
-  </si>
-  <si>
-    <t>10.Dic.2019</t>
-  </si>
-  <si>
-    <t>11.Dic.2019</t>
-  </si>
-  <si>
-    <t>12.Dic.2019</t>
-  </si>
-  <si>
-    <t>13.Dic.2019</t>
-  </si>
-  <si>
-    <t>16.Dic.2019</t>
-  </si>
-  <si>
-    <t>17.Dic.2019</t>
-  </si>
-  <si>
-    <t>18.Dic.2019</t>
-  </si>
-  <si>
-    <t>19.Dic.2019</t>
-  </si>
-  <si>
-    <t>20.Dic.2019</t>
-  </si>
-  <si>
-    <t>23.Dic.2019</t>
-  </si>
-  <si>
-    <t>24.Dic.2019</t>
-  </si>
-  <si>
-    <t>25.Dic.2019</t>
-  </si>
-  <si>
-    <t>26.Dic.2019</t>
-  </si>
-  <si>
-    <t>27.Dic.2019</t>
-  </si>
-  <si>
-    <t>30.Dic.2019</t>
-  </si>
-  <si>
-    <t>31.Dic.2019</t>
-  </si>
-  <si>
     <t>Venta spot, Monto adjudicado</t>
   </si>
   <si>
     <t>NDF, Stock vigente</t>
+  </si>
+  <si>
+    <t>02-12-2019</t>
+  </si>
+  <si>
+    <t>03-12-2019</t>
+  </si>
+  <si>
+    <t>04-12-2019</t>
+  </si>
+  <si>
+    <t>05-12-2019</t>
+  </si>
+  <si>
+    <t>06-12-2019</t>
+  </si>
+  <si>
+    <t>09-12-2019</t>
+  </si>
+  <si>
+    <t>10-12-2019</t>
+  </si>
+  <si>
+    <t>11-12-2019</t>
+  </si>
+  <si>
+    <t>12-12-2019</t>
+  </si>
+  <si>
+    <t>13-12-2019</t>
+  </si>
+  <si>
+    <t>16-12-2019</t>
+  </si>
+  <si>
+    <t>17-12-2019</t>
+  </si>
+  <si>
+    <t>18-12-2019</t>
+  </si>
+  <si>
+    <t>19-12-2019</t>
+  </si>
+  <si>
+    <t>20-12-2019</t>
+  </si>
+  <si>
+    <t>23-12-2019</t>
+  </si>
+  <si>
+    <t>24-12-2019</t>
+  </si>
+  <si>
+    <t>25-12-2019</t>
+  </si>
+  <si>
+    <t>26-12-2019</t>
+  </si>
+  <si>
+    <t>27-12-2019</t>
+  </si>
+  <si>
+    <t>30-12-2019</t>
+  </si>
+  <si>
+    <t>31-12-2019</t>
   </si>
 </sst>
 </file>
@@ -446,199 +446,202 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="B1" s="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>200</v>
+      </c>
+      <c r="C2">
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
+      <c r="A3" t="s">
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="C3">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
+      <c r="A4" t="s">
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="C4">
-        <v>400</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
+      <c r="A5" t="s">
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="C5">
-        <v>600</v>
+        <v>800</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
+      <c r="A6" t="s">
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="C6">
-        <v>800</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
+      <c r="A7" t="s">
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>1000</v>
+        <v>1150</v>
       </c>
       <c r="C7">
-        <v>1000</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
+      <c r="A8" t="s">
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>1150</v>
+        <v>1300</v>
       </c>
       <c r="C8">
-        <v>1250</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
+      <c r="A9" t="s">
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>1300</v>
+        <v>1450</v>
       </c>
       <c r="C9">
-        <v>1500</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
+      <c r="A10" t="s">
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>1450</v>
+        <v>1600</v>
       </c>
       <c r="C10">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
         <v>1750</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>1600</v>
-      </c>
       <c r="C11">
-        <v>2000</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
+      <c r="A12" t="s">
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>1750</v>
+        <v>1850</v>
       </c>
       <c r="C12">
-        <v>2240</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
+      <c r="A13" t="s">
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>1850</v>
+        <v>1950</v>
       </c>
       <c r="C13">
-        <v>2540</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
+      <c r="A14" t="s">
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>1950</v>
+        <v>2050</v>
       </c>
       <c r="C14">
-        <v>2840</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
+      <c r="A15" t="s">
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>2050</v>
+        <v>2150</v>
       </c>
       <c r="C15">
-        <v>3140</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
+      <c r="A16" t="s">
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>2150</v>
+        <v>2250</v>
       </c>
       <c r="C16">
-        <v>3440</v>
+        <v>3740</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
+      <c r="A17" t="s">
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>2250</v>
+        <v>2300</v>
       </c>
       <c r="C17">
-        <v>3740</v>
+        <v>3865</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
+      <c r="A18" t="s">
+        <v>19</v>
       </c>
       <c r="B18">
         <v>2300</v>
@@ -648,8 +651,8 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
+      <c r="A19" t="s">
+        <v>20</v>
       </c>
       <c r="B19">
         <v>2300</v>
@@ -659,57 +662,46 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
+      <c r="A20" t="s">
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>2300</v>
+        <v>2350</v>
       </c>
       <c r="C20">
-        <v>3865</v>
+        <v>3990</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
+      <c r="A21" t="s">
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>2350</v>
+        <v>2400</v>
       </c>
       <c r="C21">
-        <v>3990</v>
+        <v>4115</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
-        <v>20</v>
+      <c r="A22" t="s">
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>2400</v>
+        <v>2450</v>
       </c>
       <c r="C22">
-        <v>4115</v>
+        <v>4240</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>21</v>
+      <c r="A23" t="s">
+        <v>24</v>
       </c>
       <c r="B23">
         <v>2450</v>
       </c>
       <c r="C23">
-        <v>4240</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>2450</v>
-      </c>
-      <c r="C24">
         <v>4240</v>
       </c>
     </row>
